--- a/testProductos.xlsx
+++ b/testProductos.xlsx
@@ -29,7 +29,7 @@
     <t>torta</t>
   </si>
   <si>
-    <t>vainilla,huevos,leche,harina,</t>
+    <t>harina,huevos,vainilla,leche,</t>
   </si>
   <si>
     <t>kuchen</t>
@@ -41,19 +41,19 @@
     <t>queque</t>
   </si>
   <si>
-    <t>huevos,harina,vainilla,</t>
+    <t>huevos,vainilla,harina,</t>
   </si>
   <si>
     <t>tartaleta</t>
   </si>
   <si>
-    <t>huevos,harina,</t>
+    <t>harina,huevos,</t>
   </si>
   <si>
     <t>pie de limon</t>
   </si>
   <si>
-    <t>crema,merengue, limon, huevos,harina,</t>
+    <t>harina, huevos, limon,merengue,crema,</t>
   </si>
 </sst>
 </file>

--- a/testProductos.xlsx
+++ b/testProductos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Nombre</t>
   </si>
@@ -24,6 +24,36 @@
   </si>
   <si>
     <t>Precio de venta</t>
+  </si>
+  <si>
+    <t>torta</t>
+  </si>
+  <si>
+    <t>leche,harina,huevos,vainilla,</t>
+  </si>
+  <si>
+    <t>kuchen</t>
+  </si>
+  <si>
+    <t>manzana,huevos,harina,</t>
+  </si>
+  <si>
+    <t>queque</t>
+  </si>
+  <si>
+    <t>vainilla,harina,huevos,</t>
+  </si>
+  <si>
+    <t>tartaleta</t>
+  </si>
+  <si>
+    <t>harina,huevos,</t>
+  </si>
+  <si>
+    <t>pie de limon</t>
+  </si>
+  <si>
+    <t>merengue,harina,crema, limon, huevos,</t>
   </si>
 </sst>
 </file>
@@ -88,6 +118,76 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30000.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>700.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1000.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
